--- a/biology/Botanique/Passiflore_à_feuilles_de_vigne/Passiflore_à_feuilles_de_vigne.xlsx
+++ b/biology/Botanique/Passiflore_à_feuilles_de_vigne/Passiflore_à_feuilles_de_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Passiflore_%C3%A0_feuilles_de_vigne</t>
+          <t>Passiflore_à_feuilles_de_vigne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passiflora vitifolia
 La passiflore à feuilles de vigne (Passiflora vitifolia) est une espèce de plantes à fleurs de la famille des Passifloraceae. C'est un arbuste grimpant semi-ligneux originaire d'Amérique centrale et d'Amérique du Sud.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Passiflore_%C3%A0_feuilles_de_vigne</t>
+          <t>Passiflore_à_feuilles_de_vigne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont alternées, dentées, trilobées, vers le haut avec 15 cm de long et 18 cm de large.
 La ressemblance avec des feuilles lobées de la vigne donne à cette fleur de la passion l'épithète spécifique, de « vitifolia, » qui signifie « feuilles de vigne »  (du Latin vitis). Les fleurs sont rouge vif, de 9 à 12 cm de diamètre. Cette liane monte haut dans la canopée, mais ses fleurs se positionnent presque toujours près du sol (à hauteur du nez !).
